--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H2">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I2">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J2">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.4763</v>
+        <v>1.728078666666667</v>
       </c>
       <c r="N2">
-        <v>4.428900000000001</v>
+        <v>5.184236</v>
       </c>
       <c r="O2">
-        <v>0.01318769285519422</v>
+        <v>0.01495566191401176</v>
       </c>
       <c r="P2">
-        <v>0.01318769285519422</v>
+        <v>0.01495566191401175</v>
       </c>
       <c r="Q2">
-        <v>13.4462432489</v>
+        <v>46.33515588964578</v>
       </c>
       <c r="R2">
-        <v>121.0161892401</v>
+        <v>417.016403006812</v>
       </c>
       <c r="S2">
-        <v>2.044177037217202E-05</v>
+        <v>6.757276146866793E-05</v>
       </c>
       <c r="T2">
-        <v>2.044177037217202E-05</v>
+        <v>6.757276146866792E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H3">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I3">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J3">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>234.515686</v>
       </c>
       <c r="O3">
-        <v>0.6983045082736508</v>
+        <v>0.6765388985664503</v>
       </c>
       <c r="P3">
-        <v>0.6983045082736506</v>
+        <v>0.6765388985664502</v>
       </c>
       <c r="Q3">
-        <v>711.995068671375</v>
+        <v>2096.031289736274</v>
       </c>
       <c r="R3">
-        <v>6407.955618042374</v>
+        <v>18864.28160762646</v>
       </c>
       <c r="S3">
-        <v>0.001082416808210706</v>
+        <v>0.003056742114120389</v>
       </c>
       <c r="T3">
-        <v>0.001082416808210706</v>
+        <v>0.003056742114120388</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H4">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I4">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J4">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.14343433333334</v>
+        <v>35.284818</v>
       </c>
       <c r="N4">
-        <v>96.43030300000001</v>
+        <v>105.854454</v>
       </c>
       <c r="O4">
-        <v>0.2871352294920441</v>
+        <v>0.3053725613795956</v>
       </c>
       <c r="P4">
-        <v>0.2871352294920441</v>
+        <v>0.3053725613795956</v>
       </c>
       <c r="Q4">
-        <v>292.7646392339253</v>
+        <v>946.0955534631021</v>
       </c>
       <c r="R4">
-        <v>2634.881753105327</v>
+        <v>8514.859981167918</v>
       </c>
       <c r="S4">
-        <v>0.0004450780353688209</v>
+        <v>0.001379736140588137</v>
       </c>
       <c r="T4">
-        <v>0.0004450780353688208</v>
+        <v>0.001379736140588137</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H5">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I5">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J5">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1536526666666667</v>
+        <v>0.361994</v>
       </c>
       <c r="N5">
-        <v>0.460958</v>
+        <v>1.085982</v>
       </c>
       <c r="O5">
-        <v>0.00137256937911098</v>
+        <v>0.003132878139942378</v>
       </c>
       <c r="P5">
-        <v>0.00137256937911098</v>
+        <v>0.003132878139942378</v>
       </c>
       <c r="Q5">
-        <v>1.399479192469111</v>
+        <v>9.706183372699334</v>
       </c>
       <c r="R5">
-        <v>12.595312732222</v>
+        <v>87.355650354294</v>
       </c>
       <c r="S5">
-        <v>2.12757063542091E-06</v>
+        <v>1.415498882482721E-05</v>
       </c>
       <c r="T5">
-        <v>2.12757063542091E-06</v>
+        <v>1.415498882482721E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H6">
         <v>17315.620606</v>
       </c>
       <c r="I6">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J6">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.4763</v>
+        <v>1.728078666666667</v>
       </c>
       <c r="N6">
-        <v>4.428900000000001</v>
+        <v>5.184236</v>
       </c>
       <c r="O6">
-        <v>0.01318769285519422</v>
+        <v>0.01495566191401176</v>
       </c>
       <c r="P6">
-        <v>0.01318769285519422</v>
+        <v>0.01495566191401175</v>
       </c>
       <c r="Q6">
-        <v>8521.016900212599</v>
+        <v>9974.251523107447</v>
       </c>
       <c r="R6">
-        <v>76689.15210191339</v>
+        <v>89768.26370796702</v>
       </c>
       <c r="S6">
-        <v>0.01295415140030228</v>
+        <v>0.01454592535751129</v>
       </c>
       <c r="T6">
-        <v>0.01295415140030228</v>
+        <v>0.01454592535751129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H7">
         <v>17315.620606</v>
       </c>
       <c r="I7">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J7">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>234.515686</v>
       </c>
       <c r="O7">
-        <v>0.6983045082736508</v>
+        <v>0.6765388985664503</v>
       </c>
       <c r="P7">
-        <v>0.6983045082736506</v>
+        <v>0.6765388985664502</v>
       </c>
       <c r="Q7">
-        <v>451198.2938813139</v>
+        <v>451198.293881314</v>
       </c>
       <c r="R7">
-        <v>4060784.644931825</v>
+        <v>4060784.644931826</v>
       </c>
       <c r="S7">
-        <v>0.6859382018536767</v>
+        <v>0.6580039303229166</v>
       </c>
       <c r="T7">
-        <v>0.6859382018536767</v>
+        <v>0.6580039303229166</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H8">
         <v>17315.620606</v>
       </c>
       <c r="I8">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J8">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.14343433333334</v>
+        <v>35.284818</v>
       </c>
       <c r="N8">
-        <v>96.43030300000001</v>
+        <v>105.854454</v>
       </c>
       <c r="O8">
-        <v>0.2871352294920441</v>
+        <v>0.3053725613795956</v>
       </c>
       <c r="P8">
-        <v>0.2871352294920441</v>
+        <v>0.3053725613795956</v>
       </c>
       <c r="Q8">
-        <v>185527.8379632915</v>
+        <v>203659.5072132532</v>
       </c>
       <c r="R8">
-        <v>1669750.541669623</v>
+        <v>1832935.564919279</v>
       </c>
       <c r="S8">
-        <v>0.2820503386030443</v>
+        <v>0.2970063451285999</v>
       </c>
       <c r="T8">
-        <v>0.2820503386030443</v>
+        <v>0.2970063451286</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H9">
         <v>17315.620606</v>
       </c>
       <c r="I9">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J9">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1536526666666667</v>
+        <v>0.361994</v>
       </c>
       <c r="N9">
-        <v>0.460958</v>
+        <v>1.085982</v>
       </c>
       <c r="O9">
-        <v>0.00137256937911098</v>
+        <v>0.003132878139942378</v>
       </c>
       <c r="P9">
-        <v>0.00137256937911098</v>
+        <v>0.003132878139942378</v>
       </c>
       <c r="Q9">
-        <v>886.8637603667275</v>
+        <v>2089.383588549455</v>
       </c>
       <c r="R9">
-        <v>7981.773843300547</v>
+        <v>18804.45229694509</v>
       </c>
       <c r="S9">
-        <v>0.001348262485307985</v>
+        <v>0.003047047455324338</v>
       </c>
       <c r="T9">
-        <v>0.001348262485307985</v>
+        <v>0.003047047455324338</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H10">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I10">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J10">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.4763</v>
+        <v>1.728078666666667</v>
       </c>
       <c r="N10">
-        <v>4.428900000000001</v>
+        <v>5.184236</v>
       </c>
       <c r="O10">
-        <v>0.01318769285519422</v>
+        <v>0.01495566191401176</v>
       </c>
       <c r="P10">
-        <v>0.01318769285519422</v>
+        <v>0.01495566191401175</v>
       </c>
       <c r="Q10">
-        <v>138.2953920075</v>
+        <v>228.8767188436596</v>
       </c>
       <c r="R10">
-        <v>1244.6585280675</v>
+        <v>2059.890469592936</v>
       </c>
       <c r="S10">
-        <v>0.0002102447943724429</v>
+        <v>0.0003337818041443134</v>
       </c>
       <c r="T10">
-        <v>0.0002102447943724429</v>
+        <v>0.0003337818041443135</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H11">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I11">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J11">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>234.515686</v>
       </c>
       <c r="O11">
-        <v>0.6983045082736508</v>
+        <v>0.6765388985664503</v>
       </c>
       <c r="P11">
-        <v>0.6983045082736506</v>
+        <v>0.6765388985664502</v>
       </c>
       <c r="Q11">
-        <v>7322.91059343805</v>
+        <v>10353.53728669951</v>
       </c>
       <c r="R11">
-        <v>65906.19534094245</v>
+        <v>93181.83558029565</v>
       </c>
       <c r="S11">
-        <v>0.01113271967761349</v>
+        <v>0.01509905582485468</v>
       </c>
       <c r="T11">
-        <v>0.01113271967761349</v>
+        <v>0.01509905582485468</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H12">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I12">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J12">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.14343433333334</v>
+        <v>35.284818</v>
       </c>
       <c r="N12">
-        <v>96.43030300000001</v>
+        <v>105.854454</v>
       </c>
       <c r="O12">
-        <v>0.2871352294920441</v>
+        <v>0.3053725613795956</v>
       </c>
       <c r="P12">
-        <v>0.2871352294920441</v>
+        <v>0.3053725613795956</v>
       </c>
       <c r="Q12">
-        <v>3011.101301629526</v>
+        <v>4673.325077505556</v>
       </c>
       <c r="R12">
-        <v>27099.91171466573</v>
+        <v>42059.92569755001</v>
       </c>
       <c r="S12">
-        <v>0.004577653418570607</v>
+        <v>0.006815332217289343</v>
       </c>
       <c r="T12">
-        <v>0.004577653418570606</v>
+        <v>0.006815332217289343</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H13">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I13">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J13">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1536526666666667</v>
+        <v>0.361994</v>
       </c>
       <c r="N13">
-        <v>0.460958</v>
+        <v>1.085982</v>
       </c>
       <c r="O13">
-        <v>0.00137256937911098</v>
+        <v>0.003132878139942378</v>
       </c>
       <c r="P13">
-        <v>0.00137256937911098</v>
+        <v>0.003132878139942378</v>
       </c>
       <c r="Q13">
-        <v>14.39372469665</v>
+        <v>47.94457599601466</v>
       </c>
       <c r="R13">
-        <v>129.54352226985</v>
+        <v>431.501183964132</v>
       </c>
       <c r="S13">
-        <v>2.188218743352357E-05</v>
+        <v>6.991985535154067E-05</v>
       </c>
       <c r="T13">
-        <v>2.188218743352356E-05</v>
+        <v>6.991985535154067E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H14">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I14">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J14">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.4763</v>
+        <v>1.728078666666667</v>
       </c>
       <c r="N14">
-        <v>4.428900000000001</v>
+        <v>5.184236</v>
       </c>
       <c r="O14">
-        <v>0.01318769285519422</v>
+        <v>0.01495566191401176</v>
       </c>
       <c r="P14">
-        <v>0.01318769285519422</v>
+        <v>0.01495566191401175</v>
       </c>
       <c r="Q14">
-        <v>1.8778973969</v>
+        <v>5.747594829569334</v>
       </c>
       <c r="R14">
-        <v>16.9010765721</v>
+        <v>51.72835346612401</v>
       </c>
       <c r="S14">
-        <v>2.854890147333141E-06</v>
+        <v>8.381990887481327E-06</v>
       </c>
       <c r="T14">
-        <v>2.854890147333141E-06</v>
+        <v>8.381990887481327E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H15">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I15">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J15">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>234.515686</v>
       </c>
       <c r="O15">
-        <v>0.6983045082736508</v>
+        <v>0.6765388985664503</v>
       </c>
       <c r="P15">
-        <v>0.6983045082736506</v>
+        <v>0.6765388985664502</v>
       </c>
       <c r="Q15">
-        <v>99.43696996356155</v>
+        <v>259.9999583943527</v>
       </c>
       <c r="R15">
-        <v>894.9327296720541</v>
+        <v>2339.999625549174</v>
       </c>
       <c r="S15">
-        <v>0.0001511699341498956</v>
+        <v>0.0003791703045585564</v>
       </c>
       <c r="T15">
-        <v>0.0001511699341498956</v>
+        <v>0.0003791703045585564</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H16">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I16">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J16">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>32.14343433333334</v>
+        <v>35.284818</v>
       </c>
       <c r="N16">
-        <v>96.43030300000001</v>
+        <v>105.854454</v>
       </c>
       <c r="O16">
-        <v>0.2871352294920441</v>
+        <v>0.3053725613795956</v>
       </c>
       <c r="P16">
-        <v>0.2871352294920441</v>
+        <v>0.3053725613795956</v>
       </c>
       <c r="Q16">
-        <v>40.88740206055189</v>
+        <v>117.357410522454</v>
       </c>
       <c r="R16">
-        <v>367.986618544967</v>
+        <v>1056.216694702086</v>
       </c>
       <c r="S16">
-        <v>6.215943506040991E-05</v>
+        <v>0.0001711478931181588</v>
       </c>
       <c r="T16">
-        <v>6.215943506040991E-05</v>
+        <v>0.0001711478931181588</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H17">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I17">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J17">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1536526666666667</v>
+        <v>0.361994</v>
       </c>
       <c r="N17">
-        <v>0.460958</v>
+        <v>1.085982</v>
       </c>
       <c r="O17">
-        <v>0.00137256937911098</v>
+        <v>0.003132878139942378</v>
       </c>
       <c r="P17">
-        <v>0.00137256937911098</v>
+        <v>0.003132878139942378</v>
       </c>
       <c r="Q17">
-        <v>0.1954507503624445</v>
+        <v>1.203993129982</v>
       </c>
       <c r="R17">
-        <v>1.759056753262</v>
+        <v>10.835938169838</v>
       </c>
       <c r="S17">
-        <v>2.971357340500779E-07</v>
+        <v>1.755840441671395E-06</v>
       </c>
       <c r="T17">
-        <v>2.971357340500779E-07</v>
+        <v>1.755840441671395E-06</v>
       </c>
     </row>
   </sheetData>
